--- a/samples/names_20210621_232910.xlsx
+++ b/samples/names_20210621_232910.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881BFE23-AABC-5248-A199-D0EA8D356C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF995B-E72F-9244-A25F-D4A196976A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>| Bit | Months |</t>
   </si>
   <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
     <t>verb + verb</t>
   </si>
   <si>
@@ -82,12 +76,6 @@
     <t>| Avoid | Appeal |</t>
   </si>
   <si>
-    <t>Avoid</t>
-  </si>
-  <si>
-    <t>Appeal</t>
-  </si>
-  <si>
     <t>verb + noun</t>
   </si>
   <si>
@@ -100,12 +88,6 @@
     <t>| Cover | Promo |</t>
   </si>
   <si>
-    <t>Cover</t>
-  </si>
-  <si>
-    <t>Promo</t>
-  </si>
-  <si>
     <t>ShowsArtist</t>
   </si>
   <si>
@@ -115,12 +97,6 @@
     <t>| Shows | Artist |</t>
   </si>
   <si>
-    <t>Shows</t>
-  </si>
-  <si>
-    <t>Artist</t>
-  </si>
-  <si>
     <t>MakeEcstasy</t>
   </si>
   <si>
@@ -130,12 +106,6 @@
     <t>| Make | Ecstasy |</t>
   </si>
   <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Ecstasy</t>
-  </si>
-  <si>
     <t>noun + suffix</t>
   </si>
   <si>
@@ -148,12 +118,6 @@
     <t>| Everyone | ure |</t>
   </si>
   <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>ure</t>
-  </si>
-  <si>
     <t>FilingCause</t>
   </si>
   <si>
@@ -163,12 +127,6 @@
     <t>| Filing | Cause |</t>
   </si>
   <si>
-    <t>Filing</t>
-  </si>
-  <si>
-    <t>Cause</t>
-  </si>
-  <si>
     <t>BlackBeliefs</t>
   </si>
   <si>
@@ -178,12 +136,6 @@
     <t>| Black | Beliefs |</t>
   </si>
   <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Beliefs</t>
-  </si>
-  <si>
     <t>AllowSetting</t>
   </si>
   <si>
@@ -193,12 +145,6 @@
     <t>| Allow | Setting |</t>
   </si>
   <si>
-    <t>Allow</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
     <t>adjective + noun</t>
   </si>
   <si>
@@ -211,13 +157,67 @@
     <t>| Basics | Linen |</t>
   </si>
   <si>
-    <t>Basics</t>
-  </si>
-  <si>
-    <t>Linen</t>
-  </si>
-  <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>['Bit','noun']</t>
+  </si>
+  <si>
+    <t>['Everyone','noun']</t>
+  </si>
+  <si>
+    <t>['Months','noun']</t>
+  </si>
+  <si>
+    <t>['Promo','noun']</t>
+  </si>
+  <si>
+    <t>['Artist','noun']</t>
+  </si>
+  <si>
+    <t>['Ecstasy','noun']</t>
+  </si>
+  <si>
+    <t>['Beliefs','noun']</t>
+  </si>
+  <si>
+    <t>['Linen','noun']</t>
+  </si>
+  <si>
+    <t>['Avoid','verb']</t>
+  </si>
+  <si>
+    <t>['Cover','verb']</t>
+  </si>
+  <si>
+    <t>['Shows','verb']</t>
+  </si>
+  <si>
+    <t>['Make','verb']</t>
+  </si>
+  <si>
+    <t>['Filing','verb']</t>
+  </si>
+  <si>
+    <t>['Black','verb']</t>
+  </si>
+  <si>
+    <t>['Allow','verb']</t>
+  </si>
+  <si>
+    <t>['Basics','adjective']</t>
+  </si>
+  <si>
+    <t>['Appeal','verb']</t>
+  </si>
+  <si>
+    <t>['ure','suffix']</t>
+  </si>
+  <si>
+    <t>['Cause','verb']</t>
+  </si>
+  <si>
+    <t>['Setting','verb']</t>
   </si>
 </sst>
 </file>
@@ -583,13 +583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -644,10 +651,10 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -655,31 +662,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -687,25 +694,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -713,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -739,31 +746,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -771,31 +778,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -803,25 +810,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -829,25 +836,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
         <v>52</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -855,25 +862,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -881,28 +888,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
